--- a/csec/database/Geography data.xlsx
+++ b/csec/database/Geography data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -19,16 +19,46 @@
     <t>id</t>
   </si>
   <si>
+    <t>CSEC Geography June 2019 P032.pdf</t>
+  </si>
+  <si>
+    <t>1Y5f7bP1jpaFjmSx5CecDB4Fbg81shvSz</t>
+  </si>
+  <si>
+    <t>CSEC Geography June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1iF4LwUBa5LCMNCRqS8nJ_GtmPOhqVDMp</t>
+  </si>
+  <si>
+    <t>CSEC Geography June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1Hba7HLn-BL1RcUZs2Vl88xWIuvJQtvJM</t>
+  </si>
+  <si>
+    <t>CSEC Geography June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1E134QW9FxLiI4kjsQQD6oA3eM29oqPqx</t>
+  </si>
+  <si>
+    <t>CSEC Geography June 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1a0zafZ_pfAze6f8bT8msojSZgJ1qrLqZ</t>
+  </si>
+  <si>
+    <t>CSEC Geography June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1kJPukvTgzQJMS1eKx9OacIhjazkmJuXo</t>
+  </si>
+  <si>
     <t>F5 P2 Human Systems.docx</t>
   </si>
   <si>
     <t>1X-_zHoDfoGXbYMUrQ5k4dT4zVQ1Qv589</t>
-  </si>
-  <si>
-    <t>Geography June 2018 P2.pdf</t>
-  </si>
-  <si>
-    <t>1kJPukvTgzQJMS1eKx9OacIhjazkmJuXo</t>
   </si>
   <si>
     <t>F5 exam P2 questions.docx</t>
@@ -687,6 +717,46 @@
         <v>59</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
